--- a/Arduino/Arduino Sensor Raw Data.xlsx
+++ b/Arduino/Arduino Sensor Raw Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>FL</t>
   </si>
@@ -50,7 +50,10 @@
     <t>LL Target</t>
   </si>
   <si>
-    <t>Origin (0)</t>
+    <t>Origin (1)</t>
+  </si>
+  <si>
+    <t>190 (almost fucked)</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,10 +437,10 @@
         <v>8</v>
       </c>
       <c r="H2">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="I2">
-        <v>620</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -451,13 +454,13 @@
         <v>390</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H3">
         <v>530</v>
       </c>
       <c r="I3">
-        <v>525</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -474,13 +477,13 @@
         <v>292</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>358</v>
       </c>
       <c r="I4">
-        <v>350</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -494,13 +497,13 @@
         <v>228</v>
       </c>
       <c r="G5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
         <v>265</v>
       </c>
       <c r="I5">
-        <v>262</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -517,13 +520,13 @@
         <v>185</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I6">
-        <v>210</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -536,6 +539,15 @@
       <c r="D7">
         <v>168</v>
       </c>
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>415</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -547,6 +559,15 @@
       <c r="D8">
         <v>155</v>
       </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>135</v>
+      </c>
+      <c r="I8">
+        <v>360</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -554,6 +575,53 @@
       </c>
       <c r="D9">
         <v>140</v>
+      </c>
+      <c r="G9">
+        <v>4.5</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>5.5</v>
+      </c>
+      <c r="H11">
+        <v>105</v>
+      </c>
+      <c r="I11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>6.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Arduino Sensor Raw Data.xlsx
+++ b/Arduino/Arduino Sensor Raw Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17160" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FL</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>fucked</t>
-  </si>
-  <si>
-    <t>200 (fucked alr)</t>
   </si>
   <si>
     <t>SL Target</t>
@@ -85,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +112,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -395,7 +399,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -425,16 +429,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C2">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="D2">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -445,13 +449,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C3">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D3">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G3">
         <v>1.5</v>
@@ -468,13 +472,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C4">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="D4">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -488,13 +492,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+      <c r="D5">
         <v>235</v>
-      </c>
-      <c r="C5">
-        <v>235</v>
-      </c>
-      <c r="D5">
-        <v>228</v>
       </c>
       <c r="G5">
         <v>2.5</v>
@@ -511,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
       </c>
       <c r="D6">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -531,13 +535,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1">
         <v>160</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>168</v>
+      <c r="D7" s="1">
+        <v>175</v>
       </c>
       <c r="G7">
         <v>3.5</v>
@@ -554,10 +558,13 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>140</v>
-      </c>
-      <c r="D8">
-        <v>155</v>
+        <v>135</v>
+      </c>
+      <c r="C8" s="1">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1">
+        <v>175</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -571,10 +578,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>120</v>
-      </c>
-      <c r="D9">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="C9" s="1">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1">
+        <v>180</v>
       </c>
       <c r="G9">
         <v>4.5</v>
@@ -621,7 +631,7 @@
         <v>6.5</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Arduino Sensor Raw Data.xlsx
+++ b/Arduino/Arduino Sensor Raw Data.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +452,7 @@
         <v>415</v>
       </c>
       <c r="C3">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="D3">
         <v>410</v>

--- a/Arduino/Arduino Sensor Raw Data.xlsx
+++ b/Arduino/Arduino Sensor Raw Data.xlsx
@@ -112,9 +112,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -399,7 +400,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,15 +429,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>645</v>
-      </c>
-      <c r="C2">
-        <v>665</v>
-      </c>
-      <c r="D2">
-        <v>642</v>
-      </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
@@ -449,13 +441,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="D3">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G3">
         <v>1.5</v>
@@ -471,15 +463,6 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>305</v>
-      </c>
-      <c r="C4">
-        <v>330</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -492,13 +475,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C5">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G5">
         <v>2.5</v>
@@ -514,15 +497,6 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>199</v>
-      </c>
       <c r="G6">
         <v>3</v>
       </c>
@@ -535,12 +509,12 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2">
         <v>175</v>
       </c>
       <c r="G7">
@@ -557,15 +531,8 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>135</v>
-      </c>
-      <c r="C8" s="1">
-        <v>130</v>
-      </c>
-      <c r="D8" s="1">
-        <v>175</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="G8">
         <v>4</v>
       </c>
@@ -577,15 +544,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1">
-        <v>180</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="G9">
         <v>4.5</v>
       </c>

--- a/Arduino/Arduino Sensor Raw Data.xlsx
+++ b/Arduino/Arduino Sensor Raw Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FL</t>
   </si>
@@ -38,19 +38,13 @@
     <t>Grids</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>SL Target</t>
-  </si>
-  <si>
-    <t>LL Target</t>
-  </si>
-  <si>
     <t>Origin (1)</t>
   </si>
   <si>
-    <t>190 (almost fucked)</t>
+    <t>S Target</t>
+  </si>
+  <si>
+    <t>L Target</t>
   </si>
 </sst>
 </file>
@@ -105,8 +99,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -117,11 +113,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,13 +428,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>600</v>
+        <v>334</v>
       </c>
       <c r="I2">
-        <v>350</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -453,10 +451,10 @@
         <v>1.5</v>
       </c>
       <c r="H3">
-        <v>530</v>
+        <v>247</v>
       </c>
       <c r="I3">
-        <v>400</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -466,12 +464,6 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>358</v>
-      </c>
-      <c r="I4">
-        <v>560</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -487,10 +479,10 @@
         <v>2.5</v>
       </c>
       <c r="H5">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="I5">
-        <v>540</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -500,12 +492,6 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>205</v>
-      </c>
-      <c r="I6">
-        <v>480</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -521,10 +507,10 @@
         <v>3.5</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="I7">
-        <v>415</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -535,12 +521,6 @@
       <c r="D8" s="2"/>
       <c r="G8">
         <v>4</v>
-      </c>
-      <c r="H8">
-        <v>135</v>
-      </c>
-      <c r="I8">
-        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -550,48 +530,47 @@
         <v>4.5</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I9">
-        <v>320</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>275</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11">
         <v>5.5</v>
       </c>
       <c r="H11">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I11">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>6</v>
       </c>
-      <c r="I12">
-        <v>230</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G13">
         <v>6.5</v>
       </c>
-      <c r="I13" t="s">
-        <v>8</v>
+      <c r="H13">
+        <v>94</v>
+      </c>
+      <c r="I13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Arduino Sensor Raw Data.xlsx
+++ b/Arduino/Arduino Sensor Raw Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -398,7 +398,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,6 +427,15 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>569</v>
+      </c>
+      <c r="C2">
+        <v>587</v>
+      </c>
+      <c r="D2">
+        <v>589</v>
+      </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
@@ -439,13 +448,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C3">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D3">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G3">
         <v>1.5</v>
@@ -467,22 +476,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C5">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G5">
         <v>2.5</v>
       </c>
       <c r="H5">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I5">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -510,7 +519,7 @@
         <v>105</v>
       </c>
       <c r="I7">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -549,7 +558,7 @@
         <v>94</v>
       </c>
       <c r="I11">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
